--- a/biology/Zoologie/Calamaria_javanica/Calamaria_javanica.xlsx
+++ b/biology/Zoologie/Calamaria_javanica/Calamaria_javanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calamaria javanica  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calamaria javanica  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Indonésie[1]. Elle se rencontre à Java et Belitung.
-Cette espèce n'est connue que par quatre spécimens ; un de Java et trois de Belitung[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Indonésie. Elle se rencontre à Java et Belitung.
+Cette espèce n'est connue que par quatre spécimens ; un de Java et trois de Belitung.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Calamaria javanica[3], un mâle, mesure 185 mm dont 13 mm pour la queue. Cette espèce a la face dorsale brun foncé et la face ventrale jaunâtre. Elle présente un collier jaunâtre interrompu en son milieu.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Calamaria javanica, un mâle, mesure 185 mm dont 13 mm pour la queue. Cette espèce a la face dorsale brun foncé et la face ventrale jaunâtre. Elle présente un collier jaunâtre interrompu en son milieu.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 déc. 2011)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 déc. 2011) :
 Calamaria javanica javanica Boulenger, 1891
 Calamaria javanica lineata Brongersma, 1928</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Java[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Java.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boulenger, 1891 : Description of new oriental reptiles &amp; batrachians. Annals and Magazine of Natural History, sér. 6, vol. 7, p. 279-283 (texte intégral).
 Brongersma, 1928 : Neue Reptilien aus dem Zoologischen Museum Amsterdam. Zoologischer Anzeiger, vol. 75, p. 251-257.</t>
